--- a/src/test/resources/excel/excel.xlsx
+++ b/src/test/resources/excel/excel.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Salesforce\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8317A5F8-6DDC-4BFC-A22B-F6EF73B572E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34600EF7-4F25-430B-91CD-95AD614C908C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0AEBE9D1-CB26-4F03-9896-E14C84CCF241}"/>
+    <workbookView xWindow="11190" yWindow="-13095" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{0AEBE9D1-CB26-4F03-9896-E14C84CCF241}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginToTheWebsiteTest" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginToTheWebsiteTest" sheetId="2" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,18 +39,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Analyst</t>
   </si>
   <si>
     <t>Account1</t>
   </si>
   <si>
-    <t>AccountName</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -61,6 +55,12 @@
   </si>
   <si>
     <t>ewelinabachata-usbg@force.com</t>
+  </si>
+  <si>
+    <t>accountName</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -411,11 +411,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C38F25-53AA-4D7A-88F7-A59D8548477D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022BC2 - Restricted use</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED7AC0F-E62B-4945-A936-F782CD55C260}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,53 +461,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022BC2 - Restricted use</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C38F25-53AA-4D7A-88F7-A59D8548477D}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/excel.xlsx
+++ b/src/test/resources/excel/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Salesforce\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34600EF7-4F25-430B-91CD-95AD614C908C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E282AA98-DC3A-4C1A-B23D-A3BA0E517360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="-13095" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{0AEBE9D1-CB26-4F03-9896-E14C84CCF241}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{0AEBE9D1-CB26-4F03-9896-E14C84CCF241}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginToTheWebsiteTest" sheetId="2" r:id="rId1"/>
@@ -51,16 +51,16 @@
     <t>password</t>
   </si>
   <si>
-    <t>Ly5hnn86</t>
-  </si>
-  <si>
-    <t>ewelinabachata-usbg@force.com</t>
-  </si>
-  <si>
     <t>accountName</t>
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>elzbieta.furtak-qsje@force.com</t>
+  </si>
+  <si>
+    <t>Ly5hnn87</t>
   </si>
 </sst>
 </file>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C38F25-53AA-4D7A-88F7-A59D8548477D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,15 +430,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:elzbieta.furtak-qsje@force.com" xr:uid="{87E20563-F49B-4CDD-A8CE-EF2BD0D6DC51}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022BC2 - Restricted use</oddFooter>
   </headerFooter>
@@ -449,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED7AC0F-E62B-4945-A936-F782CD55C260}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -461,10 +464,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/src/test/resources/excel/excel.xlsx
+++ b/src/test/resources/excel/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Salesforce\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E282AA98-DC3A-4C1A-B23D-A3BA0E517360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998C6638-D3E6-4BE8-BCFF-6EF8A63BBE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{0AEBE9D1-CB26-4F03-9896-E14C84CCF241}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Analyst</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>elzbieta.furtak-qsje@force.com</t>
-  </si>
-  <si>
-    <t>Ly5hnn87</t>
   </si>
 </sst>
 </file>
@@ -412,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C38F25-53AA-4D7A-88F7-A59D8548477D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,20 +422,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:elzbieta.furtak-qsje@force.com" xr:uid="{87E20563-F49B-4CDD-A8CE-EF2BD0D6DC51}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022BC2 - Restricted use</oddFooter>
   </headerFooter>
